--- a/DOM_Banner/output/dept_banner/Sanjay Patel_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sanjay Patel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,337 +360,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>url</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>license</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Vimalkumar Prajapati, S. J. Patel, Vaibhav P. Mehta, Harsur Jajada, Himanshu Bhimani</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293067036</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Production, Extraction, and Characterization of Mannan/Mannan Oligosaccharides (MOS)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5076296885", "https://openalex.org/A5017320231", "https://openalex.org/A5019645989", "https://openalex.org/A5066528135", "https://openalex.org/A5028358868"), au_display_name = c("Vimalkumar Prajapati", "S. J. Patel", "Vaibhav P. Mehta", "Harsur Jajada", "Himanshu Bhimani"), au_orcid = c("https://orcid.org/0000-0003-4257-1728", "https://orcid.org/0000-0002-7079-565X", NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Microbial and Environmental Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India", 
-"Division of Plant Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India", "Division of Plant Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India", "Division of Microbial and Environmental Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India", "Division of Microbial and Environmental Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India"
-), institution_id = c("https://openalex.org/I152185767", "https://openalex.org/I152185767", "https://openalex.org/I152185767", "https://openalex.org/I152185767", "https://openalex.org/I152185767"), institution_display_name = c("Navsari Agricultural University", "Navsari Agricultural University", "Navsari Agricultural University", "Navsari Agricultural University", "Navsari Agricultural University"), institution_ror = c("https://ror.org/026zmgd62", "https://ror.org/026zmgd62", "https://ror.org/026zmgd62", 
-"https://ror.org/026zmgd62", "https://ror.org/026zmgd62"), institution_country_code = c("IN", "IN", "IN", "IN", "IN"), institution_type = c("education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I152185767", "https://openalex.org/I152185767", "https://openalex.org/I152185767", "https://openalex.org/I152185767", "https://openalex.org/I152185767"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Microbially produced mannan/mannan oligosaccharides (MOS) are well documented to trigger various defense and resistance responses in numerous plants. Owing to its intensive properties, mannan/MOS have been evaluated as elicitor in crop protection and pest management for sustainable agriculture. Therefore, it is essential to extract and purify mannan/MOS from microbial sources and characterize them for applications in various fields. Mannan/MOS are produced by S. cerevisiae and extracted using the alkali lysis method, followed by deproteinization using the Sevage, TCA, and hydrochloric acid methods. The extracted mannan/MOS can be quantified, characterized, and evaluated for its role as an elicitor.</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>Springer protocols</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Springer protocols</t>
+          <t>https://doi.org/10.1007/978-1-0716-2601-6_13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210224522</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1949-2448</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-1-0716-2601-6_13</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4293067036</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4293067036", doi = "https://doi.org/10.1007/978-1-0716-2601-6_13")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-1-0716-2601-6_13</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>book-chapter</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4976872", "https://openalex.org/W1775749144", "https://openalex.org/W1968834637", "https://openalex.org/W2061871661", "https://openalex.org/W2094861668", "https://openalex.org/W2946798632", "https://openalex.org/W3112094258", "https://openalex.org/W3183375660")</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W1531601525", "https://openalex.org/W2948807893", "https://openalex.org/W4387497383", "https://openalex.org/W2899084033", "https://openalex.org/W2778153218", "https://openalex.org/W2607424097", "https://openalex.org/W2319480705", "https://openalex.org/W2398689458", "https://openalex.org/W2346048935")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Sanjay Patel_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sanjay Patel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,70 +365,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,70 +447,75 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Microbial and Environmental Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India; Division of Plant Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India; Division of Plant Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India; Division of Microbial and Environmental Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India; Division of Microbial and Environmental Biotechnology, ASPEE SHAKILAM Biotechnology Institute, Navsari Agricultural University, Surat, India</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293067036</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Production, Extraction, and Characterization of Mannan/Mannan Oligosaccharides (MOS)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Springer protocols</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-1-0716-2601-6_13</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-1-0716-2601-6_13</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
